--- a/MyFrankCrum_EMP/Segment_A_ER.xlsx
+++ b/MyFrankCrum_EMP/Segment_A_ER.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MFC_Ranorex\MyFrankCrum_EMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E62154-D1AE-4325-A703-89088F7B9A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C06761-2CEA-4AD9-88DD-3E6E16542403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{9ADB6619-802A-418E-A83B-66F8F437DA2E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="8" xr2:uid="{9ADB6619-802A-418E-A83B-66F8F437DA2E}"/>
   </bookViews>
   <sheets>
     <sheet name="TC's_Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="ER_OSHA_Forms" sheetId="14" r:id="rId2"/>
-    <sheet name="Common_Data" sheetId="2" r:id="rId3"/>
-    <sheet name="ER_Login_Page" sheetId="8" r:id="rId4"/>
-    <sheet name="ER_Home_Screen" sheetId="15" r:id="rId5"/>
-    <sheet name="ER_W_2s" sheetId="9" r:id="rId6"/>
-    <sheet name="ER_Employees_Personal" sheetId="10" r:id="rId7"/>
-    <sheet name="ER-_Employees_Pay_History" sheetId="11" r:id="rId8"/>
-    <sheet name="ER-_Employees_Documents" sheetId="12" r:id="rId9"/>
-    <sheet name="ER_Employees_List_and_Search" sheetId="13" r:id="rId10"/>
+    <sheet name="Common_Data" sheetId="2" r:id="rId2"/>
+    <sheet name="ER_General_Settings" sheetId="17" r:id="rId3"/>
+    <sheet name="ER_OSHA_Forms" sheetId="14" r:id="rId4"/>
+    <sheet name="ER_Invoices" sheetId="16" r:id="rId5"/>
+    <sheet name="ER_Login_Page" sheetId="8" r:id="rId6"/>
+    <sheet name="ER_Home_Screen" sheetId="15" r:id="rId7"/>
+    <sheet name="ER_W_2s" sheetId="9" r:id="rId8"/>
+    <sheet name="ER_Employees_Personal" sheetId="10" r:id="rId9"/>
+    <sheet name="ER-_Employees_Pay_History" sheetId="11" r:id="rId10"/>
+    <sheet name="ER-_Employees_Documents" sheetId="12" r:id="rId11"/>
+    <sheet name="ER_Employees_List_and_Search" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="36">
   <si>
     <t>TC's ID</t>
   </si>
@@ -123,9 +125,6 @@
     <t>EmpName</t>
   </si>
   <si>
-    <t>Draber</t>
-  </si>
-  <si>
     <t>ER-_Employees_Pay_History</t>
   </si>
   <si>
@@ -148,6 +147,12 @@
   </si>
   <si>
     <t>ER_Home_Screen</t>
+  </si>
+  <si>
+    <t>ER_Invoices</t>
+  </si>
+  <si>
+    <t>ER_General_Settings</t>
   </si>
 </sst>
 </file>
@@ -537,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13632003-B44A-473E-809C-BEC97166C5CC}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,10 +580,10 @@
         <v>8093</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -608,10 +613,10 @@
         <v>8097</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -619,10 +624,10 @@
         <v>8098</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -630,10 +635,10 @@
         <v>8170</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -641,10 +646,32 @@
         <v>8103</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>8104</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>8111</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -657,6 +684,8 @@
     <hyperlink ref="C8" location="ER_Employees_List_and_Search!A1" display="ER_Employees_List_and_Search" xr:uid="{33ABC83A-15C8-40D7-B64C-183684E42CDF}"/>
     <hyperlink ref="C9" location="ER_OSHA_Forms!A1" display="ER_OSHA_Forms" xr:uid="{6B5F9572-82F8-4F98-BBF6-331D81BEA900}"/>
     <hyperlink ref="C3" location="ER_Home_Screen!A1" display="ER_Home_Screen" xr:uid="{D3A280B6-48F6-4F0A-A7CD-45D9987AE22B}"/>
+    <hyperlink ref="C10" location="ER_Invoices!A1" display="ER_Invoices" xr:uid="{B83BCF47-6895-4CE1-BBA6-1CF718CEEB63}"/>
+    <hyperlink ref="C11" location="ER_General_Settings!A1" display="ER_General_Settings" xr:uid="{FFA920CF-6434-4462-84BC-60FC1F7C951C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -664,6 +693,168 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753799D2-6A30-4F1B-8651-756CEAAAAAAB}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'TC''s_Sheet'!A6</f>
+        <v>8097</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'TC''s_Sheet'!B6</f>
+        <v>ER_Employees_Pay_History</v>
+      </c>
+      <c r="C2" t="str">
+        <f>Common_Data!A2</f>
+        <v>Chrome</v>
+      </c>
+      <c r="D2" t="str">
+        <f>Common_Data!B2</f>
+        <v>https://mfcqa01.frankcrum.com</v>
+      </c>
+      <c r="E2" t="str">
+        <f>Common_Data!C2</f>
+        <v>mfcqa01.frankcrum.com</v>
+      </c>
+      <c r="F2" t="str">
+        <f>Common_Data!D2</f>
+        <v>RRouse123</v>
+      </c>
+      <c r="G2" t="str">
+        <f>Common_Data!E2</f>
+        <v>RRouse123$$</v>
+      </c>
+      <c r="H2" t="str">
+        <f>Common_Data!F2</f>
+        <v>Lucky Dog</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E9AC17-7870-4CE6-B1E6-068C90ADD44D}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'TC''s_Sheet'!A7</f>
+        <v>8098</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'TC''s_Sheet'!B7</f>
+        <v>ER_Employees_Documents</v>
+      </c>
+      <c r="C2" t="str">
+        <f>Common_Data!A2</f>
+        <v>Chrome</v>
+      </c>
+      <c r="D2" t="str">
+        <f>Common_Data!B2</f>
+        <v>https://mfcqa01.frankcrum.com</v>
+      </c>
+      <c r="E2" t="str">
+        <f>Common_Data!C2</f>
+        <v>mfcqa01.frankcrum.com</v>
+      </c>
+      <c r="F2" t="str">
+        <f>Common_Data!D2</f>
+        <v>RRouse123</v>
+      </c>
+      <c r="G2" t="str">
+        <f>Common_Data!E2</f>
+        <v>RRouse123$$</v>
+      </c>
+      <c r="H2" t="str">
+        <f>Common_Data!F2</f>
+        <v>Lucky Dog</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0905B86-2FBE-4BFA-9979-801AD9EC9D69}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -740,81 +931,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBEE1BBB-EE82-48BE-8208-23C855627BFB}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f>'TC''s_Sheet'!A9</f>
-        <v>8103</v>
-      </c>
-      <c r="B2" t="str">
-        <f>'TC''s_Sheet'!B9</f>
-        <v>ER_OSHA_Forms</v>
-      </c>
-      <c r="C2" t="str">
-        <f>Common_Data!A2</f>
-        <v>Chrome</v>
-      </c>
-      <c r="D2" t="str">
-        <f>Common_Data!B2</f>
-        <v>https://mfcqa01.frankcrum.com</v>
-      </c>
-      <c r="E2" t="str">
-        <f>Common_Data!C2</f>
-        <v>mfcqa01.frankcrum.com</v>
-      </c>
-      <c r="F2" t="str">
-        <f>Common_Data!D2</f>
-        <v>RRouse123</v>
-      </c>
-      <c r="G2" t="str">
-        <f>Common_Data!E2</f>
-        <v>RRouse123$$</v>
-      </c>
-      <c r="H2" t="str">
-        <f>Common_Data!F2</f>
-        <v>Lucky Dog</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD85CB5E-9145-4B3C-8387-A5E2F209FA67}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -922,7 +1038,232 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F24DC3-D076-495C-A7A2-2D0A8A74AC33}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'TC''s_Sheet'!A11</f>
+        <v>8111</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'TC''s_Sheet'!B11</f>
+        <v>ER_General_Settings</v>
+      </c>
+      <c r="C2" t="str">
+        <f>Common_Data!A2</f>
+        <v>Chrome</v>
+      </c>
+      <c r="D2" t="str">
+        <f>Common_Data!B2</f>
+        <v>https://mfcqa01.frankcrum.com</v>
+      </c>
+      <c r="E2" t="str">
+        <f>Common_Data!C2</f>
+        <v>mfcqa01.frankcrum.com</v>
+      </c>
+      <c r="F2" t="str">
+        <f>Common_Data!D2</f>
+        <v>RRouse123</v>
+      </c>
+      <c r="G2" t="str">
+        <f>Common_Data!E2</f>
+        <v>RRouse123$$</v>
+      </c>
+      <c r="H2" t="str">
+        <f>Common_Data!F2</f>
+        <v>Lucky Dog</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBEE1BBB-EE82-48BE-8208-23C855627BFB}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'TC''s_Sheet'!A9</f>
+        <v>8103</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'TC''s_Sheet'!B9</f>
+        <v>ER_OSHA_Forms</v>
+      </c>
+      <c r="C2" t="str">
+        <f>Common_Data!A2</f>
+        <v>Chrome</v>
+      </c>
+      <c r="D2" t="str">
+        <f>Common_Data!B2</f>
+        <v>https://mfcqa01.frankcrum.com</v>
+      </c>
+      <c r="E2" t="str">
+        <f>Common_Data!C2</f>
+        <v>mfcqa01.frankcrum.com</v>
+      </c>
+      <c r="F2" t="str">
+        <f>Common_Data!D2</f>
+        <v>RRouse123</v>
+      </c>
+      <c r="G2" t="str">
+        <f>Common_Data!E2</f>
+        <v>RRouse123$$</v>
+      </c>
+      <c r="H2" t="str">
+        <f>Common_Data!F2</f>
+        <v>Lucky Dog</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6094DA23-3712-4C0C-BD68-B9067A46D338}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'TC''s_Sheet'!A10</f>
+        <v>8104</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'TC''s_Sheet'!B10</f>
+        <v>ER_Invoices</v>
+      </c>
+      <c r="C2" t="str">
+        <f>Common_Data!A2</f>
+        <v>Chrome</v>
+      </c>
+      <c r="D2" t="str">
+        <f>Common_Data!B2</f>
+        <v>https://mfcqa01.frankcrum.com</v>
+      </c>
+      <c r="E2" t="str">
+        <f>Common_Data!C2</f>
+        <v>mfcqa01.frankcrum.com</v>
+      </c>
+      <c r="F2" t="str">
+        <f>Common_Data!D2</f>
+        <v>RRouse123</v>
+      </c>
+      <c r="G2" t="str">
+        <f>Common_Data!E2</f>
+        <v>RRouse123$$</v>
+      </c>
+      <c r="H2" t="str">
+        <f>Common_Data!F2</f>
+        <v>Lucky Dog</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB59DE2-ED84-4FE2-B74D-56B01BE3A218}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -997,11 +1338,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFBD222-A6BE-4C47-AEC4-5861A5C8360F}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1072,7 +1413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17CE07A7-9B0C-44D7-A4BF-BDBB08D6FA1F}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1150,12 +1491,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BBDD46D-B190-4427-AB7C-42D388F6BC64}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1223,169 +1564,7 @@
         <v>Lucky Dog</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753799D2-6A30-4F1B-8651-756CEAAAAAAB}">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f>'TC''s_Sheet'!A6</f>
-        <v>8097</v>
-      </c>
-      <c r="B2" t="str">
-        <f>'TC''s_Sheet'!B6</f>
-        <v>ER_Employees_Pay_History</v>
-      </c>
-      <c r="C2" t="str">
-        <f>Common_Data!A2</f>
-        <v>Chrome</v>
-      </c>
-      <c r="D2" t="str">
-        <f>Common_Data!B2</f>
-        <v>https://mfcqa01.frankcrum.com</v>
-      </c>
-      <c r="E2" t="str">
-        <f>Common_Data!C2</f>
-        <v>mfcqa01.frankcrum.com</v>
-      </c>
-      <c r="F2" t="str">
-        <f>Common_Data!D2</f>
-        <v>RRouse123</v>
-      </c>
-      <c r="G2" t="str">
-        <f>Common_Data!E2</f>
-        <v>RRouse123$$</v>
-      </c>
-      <c r="H2" t="str">
-        <f>Common_Data!F2</f>
-        <v>Lucky Dog</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E9AC17-7870-4CE6-B1E6-068C90ADD44D}">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f>'TC''s_Sheet'!A7</f>
-        <v>8098</v>
-      </c>
-      <c r="B2" t="str">
-        <f>'TC''s_Sheet'!B7</f>
-        <v>ER_Employees_Documents</v>
-      </c>
-      <c r="C2" t="str">
-        <f>Common_Data!A2</f>
-        <v>Chrome</v>
-      </c>
-      <c r="D2" t="str">
-        <f>Common_Data!B2</f>
-        <v>https://mfcqa01.frankcrum.com</v>
-      </c>
-      <c r="E2" t="str">
-        <f>Common_Data!C2</f>
-        <v>mfcqa01.frankcrum.com</v>
-      </c>
-      <c r="F2" t="str">
-        <f>Common_Data!D2</f>
-        <v>RRouse123</v>
-      </c>
-      <c r="G2" t="str">
-        <f>Common_Data!E2</f>
-        <v>RRouse123$$</v>
-      </c>
-      <c r="H2" t="str">
-        <f>Common_Data!F2</f>
-        <v>Lucky Dog</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
